--- a/workflow-cgi/workflow-Genotype/0-scanner-labid/3000142921.xlsx
+++ b/workflow-cgi/workflow-Genotype/0-scanner-labid/3000142921.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27211"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thokall/Documents/SeqDB-documentation/workflow-cgi/workflow-Genotype/0-scanner-labid/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="420" windowWidth="17955" windowHeight="10965"/>
+    <workbookView xWindow="360" yWindow="460" windowWidth="17960" windowHeight="10960"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,6 +20,14 @@
     <definedName name="NRM_CGI_3000142921_20200123" localSheetId="0">Sheet1!$A$1:$D$97</definedName>
   </definedNames>
   <calcPr calcId="145621" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -333,280 +346,280 @@
     <t>H12</t>
   </si>
   <si>
-    <t>Sample</t>
-  </si>
-  <si>
     <t>S3203</t>
   </si>
   <si>
-    <t>s3181</t>
-  </si>
-  <si>
-    <t>s3176</t>
-  </si>
-  <si>
-    <t>s3192</t>
-  </si>
-  <si>
-    <t>s3158</t>
-  </si>
-  <si>
-    <t>s3148</t>
-  </si>
-  <si>
-    <t>s3139</t>
-  </si>
-  <si>
-    <t>s3128</t>
-  </si>
-  <si>
-    <t>s3113</t>
-  </si>
-  <si>
-    <t>s3105</t>
-  </si>
-  <si>
-    <t>s3093</t>
-  </si>
-  <si>
-    <t>s3080</t>
-  </si>
-  <si>
-    <t>s3191</t>
-  </si>
-  <si>
-    <t>s3201</t>
-  </si>
-  <si>
-    <t>s3180</t>
-  </si>
-  <si>
-    <t>s3169</t>
-  </si>
-  <si>
-    <t>s3157</t>
-  </si>
-  <si>
-    <t>s3146</t>
-  </si>
-  <si>
-    <t>s3138</t>
-  </si>
-  <si>
-    <t>s3127</t>
-  </si>
-  <si>
-    <t>s3114</t>
-  </si>
-  <si>
-    <t>s3104</t>
-  </si>
-  <si>
-    <t>s3092</t>
-  </si>
-  <si>
-    <t>s3079</t>
-  </si>
-  <si>
-    <t>s3200</t>
-  </si>
-  <si>
-    <t>s3188</t>
-  </si>
-  <si>
-    <t>s3177</t>
-  </si>
-  <si>
-    <t>s3168</t>
-  </si>
-  <si>
-    <t>s3156</t>
-  </si>
-  <si>
-    <t>s3145</t>
-  </si>
-  <si>
-    <t>s3136</t>
-  </si>
-  <si>
-    <t>s3124</t>
-  </si>
-  <si>
-    <t>s3103</t>
-  </si>
-  <si>
-    <t>s3090</t>
-  </si>
-  <si>
-    <t>s3197</t>
-  </si>
-  <si>
-    <t>s3187</t>
-  </si>
-  <si>
-    <t>s3166</t>
-  </si>
-  <si>
-    <t>s3154</t>
-  </si>
-  <si>
-    <t>s3144</t>
-  </si>
-  <si>
-    <t>s3135</t>
-  </si>
-  <si>
-    <t>s3123</t>
-  </si>
-  <si>
-    <t>s3112</t>
-  </si>
-  <si>
-    <t>s3102</t>
-  </si>
-  <si>
-    <t>s3089</t>
-  </si>
-  <si>
-    <t>s3075</t>
-  </si>
-  <si>
-    <t>s3196</t>
-  </si>
-  <si>
-    <t>s3185</t>
-  </si>
-  <si>
-    <t>s3175</t>
-  </si>
-  <si>
-    <t>s3165</t>
-  </si>
-  <si>
-    <t>s3153</t>
-  </si>
-  <si>
-    <t>s3143</t>
-  </si>
-  <si>
-    <t>s3133</t>
-  </si>
-  <si>
-    <t>s3122</t>
-  </si>
-  <si>
-    <t>s3111</t>
-  </si>
-  <si>
-    <t>s3100</t>
-  </si>
-  <si>
-    <t>s3088</t>
-  </si>
-  <si>
-    <t>s3074</t>
-  </si>
-  <si>
-    <t>s3195</t>
-  </si>
-  <si>
-    <t>s3184</t>
-  </si>
-  <si>
-    <t>s3174</t>
-  </si>
-  <si>
-    <t>s3164</t>
-  </si>
-  <si>
-    <t>s3152</t>
-  </si>
-  <si>
-    <t>s3142</t>
-  </si>
-  <si>
-    <t>s3121</t>
-  </si>
-  <si>
-    <t>s3110</t>
-  </si>
-  <si>
-    <t>s3097</t>
-  </si>
-  <si>
-    <t>s3086</t>
-  </si>
-  <si>
-    <t>s3072</t>
-  </si>
-  <si>
-    <t>s3194</t>
-  </si>
-  <si>
-    <t>s3183</t>
-  </si>
-  <si>
-    <t>s3172</t>
-  </si>
-  <si>
-    <t>s3163</t>
-  </si>
-  <si>
-    <t>s3150</t>
-  </si>
-  <si>
-    <t>s3141</t>
-  </si>
-  <si>
-    <t>s3131</t>
-  </si>
-  <si>
-    <t>s3120</t>
-  </si>
-  <si>
-    <t>s3109</t>
-  </si>
-  <si>
-    <t>s3096</t>
-  </si>
-  <si>
-    <t>s3082</t>
-  </si>
-  <si>
-    <t>s3071</t>
-  </si>
-  <si>
-    <t>s3182</t>
-  </si>
-  <si>
-    <t>s3171</t>
-  </si>
-  <si>
-    <t>s3161</t>
-  </si>
-  <si>
-    <t>s3149</t>
-  </si>
-  <si>
-    <t>s3140</t>
-  </si>
-  <si>
-    <t>s3130</t>
-  </si>
-  <si>
-    <t>s3119</t>
-  </si>
-  <si>
-    <t>s3108</t>
-  </si>
-  <si>
-    <t>s3094</t>
-  </si>
-  <si>
-    <t>s3081</t>
-  </si>
-  <si>
-    <t>s3070</t>
+    <t>Lab ID</t>
+  </si>
+  <si>
+    <t>S3192</t>
+  </si>
+  <si>
+    <t>S3181</t>
+  </si>
+  <si>
+    <t>S3176</t>
+  </si>
+  <si>
+    <t>S3158</t>
+  </si>
+  <si>
+    <t>S3148</t>
+  </si>
+  <si>
+    <t>S3139</t>
+  </si>
+  <si>
+    <t>S3128</t>
+  </si>
+  <si>
+    <t>S3113</t>
+  </si>
+  <si>
+    <t>S3105</t>
+  </si>
+  <si>
+    <t>S3093</t>
+  </si>
+  <si>
+    <t>S3080</t>
+  </si>
+  <si>
+    <t>S3201</t>
+  </si>
+  <si>
+    <t>S3191</t>
+  </si>
+  <si>
+    <t>S3180</t>
+  </si>
+  <si>
+    <t>S3169</t>
+  </si>
+  <si>
+    <t>S3157</t>
+  </si>
+  <si>
+    <t>S3146</t>
+  </si>
+  <si>
+    <t>S3138</t>
+  </si>
+  <si>
+    <t>S3127</t>
+  </si>
+  <si>
+    <t>S3114</t>
+  </si>
+  <si>
+    <t>S3104</t>
+  </si>
+  <si>
+    <t>S3092</t>
+  </si>
+  <si>
+    <t>S3079</t>
+  </si>
+  <si>
+    <t>S3200</t>
+  </si>
+  <si>
+    <t>S3188</t>
+  </si>
+  <si>
+    <t>S3177</t>
+  </si>
+  <si>
+    <t>S3168</t>
+  </si>
+  <si>
+    <t>S3156</t>
+  </si>
+  <si>
+    <t>S3145</t>
+  </si>
+  <si>
+    <t>S3136</t>
+  </si>
+  <si>
+    <t>S3124</t>
+  </si>
+  <si>
+    <t>S3103</t>
+  </si>
+  <si>
+    <t>S3090</t>
+  </si>
+  <si>
+    <t>S3197</t>
+  </si>
+  <si>
+    <t>S3187</t>
+  </si>
+  <si>
+    <t>S3166</t>
+  </si>
+  <si>
+    <t>S3154</t>
+  </si>
+  <si>
+    <t>S3144</t>
+  </si>
+  <si>
+    <t>S3135</t>
+  </si>
+  <si>
+    <t>S3123</t>
+  </si>
+  <si>
+    <t>S3112</t>
+  </si>
+  <si>
+    <t>S3102</t>
+  </si>
+  <si>
+    <t>S3089</t>
+  </si>
+  <si>
+    <t>S3075</t>
+  </si>
+  <si>
+    <t>S3196</t>
+  </si>
+  <si>
+    <t>S3185</t>
+  </si>
+  <si>
+    <t>S3175</t>
+  </si>
+  <si>
+    <t>S3165</t>
+  </si>
+  <si>
+    <t>S3153</t>
+  </si>
+  <si>
+    <t>S3143</t>
+  </si>
+  <si>
+    <t>S3133</t>
+  </si>
+  <si>
+    <t>S3122</t>
+  </si>
+  <si>
+    <t>S3111</t>
+  </si>
+  <si>
+    <t>S3100</t>
+  </si>
+  <si>
+    <t>S3088</t>
+  </si>
+  <si>
+    <t>S3074</t>
+  </si>
+  <si>
+    <t>S3195</t>
+  </si>
+  <si>
+    <t>S3184</t>
+  </si>
+  <si>
+    <t>S3174</t>
+  </si>
+  <si>
+    <t>S3164</t>
+  </si>
+  <si>
+    <t>S3152</t>
+  </si>
+  <si>
+    <t>S3142</t>
+  </si>
+  <si>
+    <t>S3121</t>
+  </si>
+  <si>
+    <t>S3110</t>
+  </si>
+  <si>
+    <t>S3097</t>
+  </si>
+  <si>
+    <t>S3086</t>
+  </si>
+  <si>
+    <t>S3072</t>
+  </si>
+  <si>
+    <t>S3194</t>
+  </si>
+  <si>
+    <t>S3183</t>
+  </si>
+  <si>
+    <t>S3172</t>
+  </si>
+  <si>
+    <t>S3163</t>
+  </si>
+  <si>
+    <t>S3150</t>
+  </si>
+  <si>
+    <t>S3141</t>
+  </si>
+  <si>
+    <t>S3131</t>
+  </si>
+  <si>
+    <t>S3120</t>
+  </si>
+  <si>
+    <t>S3109</t>
+  </si>
+  <si>
+    <t>S3096</t>
+  </si>
+  <si>
+    <t>S3082</t>
+  </si>
+  <si>
+    <t>S3071</t>
+  </si>
+  <si>
+    <t>S3182</t>
+  </si>
+  <si>
+    <t>S3171</t>
+  </si>
+  <si>
+    <t>S3161</t>
+  </si>
+  <si>
+    <t>S3149</t>
+  </si>
+  <si>
+    <t>S3140</t>
+  </si>
+  <si>
+    <t>S3130</t>
+  </si>
+  <si>
+    <t>S3119</t>
+  </si>
+  <si>
+    <t>S3108</t>
+  </si>
+  <si>
+    <t>S3094</t>
+  </si>
+  <si>
+    <t>S3081</t>
+  </si>
+  <si>
+    <t>S3070</t>
   </si>
 </sst>
 </file>
@@ -705,12 +718,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -740,12 +753,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -951,17 +964,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="D98" sqref="D98"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -972,10 +985,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -986,10 +999,10 @@
         <v>3000142921</v>
       </c>
       <c r="D2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1000,10 +1013,10 @@
         <v>3000142921</v>
       </c>
       <c r="D3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1014,10 +1027,10 @@
         <v>3000142921</v>
       </c>
       <c r="D4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1028,10 +1041,10 @@
         <v>3000142921</v>
       </c>
       <c r="D5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1045,7 +1058,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1059,7 +1072,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1073,7 +1086,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1087,7 +1100,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1101,7 +1114,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1115,7 +1128,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1129,7 +1142,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1143,7 +1156,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1154,10 +1167,10 @@
         <v>3000142921</v>
       </c>
       <c r="D14" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1168,10 +1181,10 @@
         <v>3000142921</v>
       </c>
       <c r="D15" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1185,7 +1198,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1199,7 +1212,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1213,7 +1226,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1227,7 +1240,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -1241,7 +1254,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -1255,7 +1268,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -1269,7 +1282,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -1283,7 +1296,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -1297,7 +1310,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -1311,7 +1324,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -1325,7 +1338,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -1339,7 +1352,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -1353,7 +1366,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -1367,7 +1380,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -1381,7 +1394,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -1395,7 +1408,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -1409,7 +1422,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -1423,7 +1436,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>35</v>
       </c>
@@ -1437,7 +1450,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -1451,7 +1464,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -1465,7 +1478,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -1479,7 +1492,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -1493,7 +1506,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -1507,7 +1520,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -1518,10 +1531,10 @@
         <v>3000142921</v>
       </c>
       <c r="D40" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -1535,7 +1548,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -1549,7 +1562,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>44</v>
       </c>
@@ -1563,7 +1576,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>45</v>
       </c>
@@ -1577,7 +1590,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>46</v>
       </c>
@@ -1591,7 +1604,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>47</v>
       </c>
@@ -1605,7 +1618,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>48</v>
       </c>
@@ -1619,7 +1632,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>49</v>
       </c>
@@ -1633,7 +1646,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -1647,7 +1660,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>51</v>
       </c>
@@ -1661,7 +1674,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>52</v>
       </c>
@@ -1675,7 +1688,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>53</v>
       </c>
@@ -1689,7 +1702,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>54</v>
       </c>
@@ -1703,7 +1716,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>55</v>
       </c>
@@ -1717,7 +1730,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>56</v>
       </c>
@@ -1731,7 +1744,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>57</v>
       </c>
@@ -1745,7 +1758,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>58</v>
       </c>
@@ -1759,7 +1772,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>59</v>
       </c>
@@ -1773,7 +1786,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>60</v>
       </c>
@@ -1787,7 +1800,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>61</v>
       </c>
@@ -1801,7 +1814,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>62</v>
       </c>
@@ -1815,7 +1828,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>63</v>
       </c>
@@ -1829,7 +1842,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>64</v>
       </c>
@@ -1843,7 +1856,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>65</v>
       </c>
@@ -1857,7 +1870,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>66</v>
       </c>
@@ -1871,7 +1884,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>67</v>
       </c>
@@ -1885,7 +1898,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>68</v>
       </c>
@@ -1899,7 +1912,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>69</v>
       </c>
@@ -1913,7 +1926,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>70</v>
       </c>
@@ -1927,7 +1940,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>71</v>
       </c>
@@ -1941,7 +1954,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>72</v>
       </c>
@@ -1955,7 +1968,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>73</v>
       </c>
@@ -1969,7 +1982,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>74</v>
       </c>
@@ -1983,7 +1996,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>75</v>
       </c>
@@ -1997,7 +2010,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>76</v>
       </c>
@@ -2011,7 +2024,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>77</v>
       </c>
@@ -2025,7 +2038,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>78</v>
       </c>
@@ -2039,7 +2052,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>79</v>
       </c>
@@ -2053,7 +2066,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>80</v>
       </c>
@@ -2067,7 +2080,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>81</v>
       </c>
@@ -2081,7 +2094,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>82</v>
       </c>
@@ -2095,7 +2108,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>83</v>
       </c>
@@ -2109,7 +2122,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>84</v>
       </c>
@@ -2123,7 +2136,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>85</v>
       </c>
@@ -2137,7 +2150,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>86</v>
       </c>
@@ -2151,7 +2164,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>87</v>
       </c>
@@ -2165,7 +2178,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>88</v>
       </c>
@@ -2179,7 +2192,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>89</v>
       </c>
@@ -2193,7 +2206,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>90</v>
       </c>
@@ -2207,7 +2220,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>91</v>
       </c>
@@ -2221,7 +2234,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>92</v>
       </c>
@@ -2235,7 +2248,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>93</v>
       </c>
@@ -2249,7 +2262,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>94</v>
       </c>
@@ -2263,7 +2276,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>95</v>
       </c>
@@ -2277,7 +2290,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>96</v>
       </c>
@@ -2291,7 +2304,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>97</v>
       </c>
@@ -2305,7 +2318,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>98</v>
       </c>
@@ -2330,7 +2343,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2342,7 +2355,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
